--- a/Task_1/SEC_Financial_Data.xlsx
+++ b/Task_1/SEC_Financial_Data.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cash Flow </t>
+          <t>Cash Flow</t>
         </is>
       </c>
     </row>
